--- a/files/ac1_hist_ruleta.xlsx
+++ b/files/ac1_hist_ruleta.xlsx
@@ -8,6 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="gen_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="gen_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="gen_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gen_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="gen_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="gen_5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="gen_6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="gen_7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="gen_8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="gen_9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Función objetivo" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,109 +474,185 @@
           <t>padres</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.8095238095238095</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.655328798185941</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['000110' '111000']</t>
-        </is>
+          <t>['000011' '111010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J2" t="n">
+        <v>59</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111000</t>
+          <t>111010</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6049382716049381</v>
+        <v>0.7077349458301837</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>000010</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['000110' '111000']</t>
-        </is>
+          <t>['000011' '111010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8770471151423532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6825396825396826</v>
+        <v>-0.7777777777777778</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>000111</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4658604182413706</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['001010' '001100']</t>
-        </is>
+          <t>['000111' '001101']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.5238095238095238</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2743764172335601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6190476190476191</v>
+        <v>-0.5873015873015873</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>001100</t>
+          <t>001101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3832199546485261</v>
+        <v>0.344923154446964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>001100</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['001010' '001100']</t>
-        </is>
+          <t>['000111' '001101']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.8412698412698413</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="6">
@@ -586,143 +672,4667 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>010111</t>
+          <t>101111</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['001111' '010000']</t>
-        </is>
+          <t>['001111' '101110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="J6" t="n">
+        <v>47</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>101111</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2421264802217183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4920634920634921</v>
+        <v>0.4603174603174602</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>010000</t>
+          <t>101110</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2421264802217183</v>
+        <v>0.2118921642731166</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>001110</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['001111' '010000']</t>
-        </is>
+          <t>['001111' '101110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.5555555555555556</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.308641975308642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2380952380952381</v>
+        <v>-0.3015873015873016</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.05668934240362813</v>
+        <v>0.09095490047871002</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['011000' '100100']</t>
-        </is>
+          <t>['010110' '010111']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3015873015873016</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09095490047871002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.2698412698412699</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>100100</t>
+          <t>010111</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.07281431090954903</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>010111</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['011000' '100100']</t>
-        </is>
+          <t>['010110' '010111']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.2698412698412699</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.07281431090954903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04761904761904745</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>100001</t>
+          <t>100110</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.002267573696145109</v>
+        <v>0.04257999496094732</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>100110</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['100001' '011111']</t>
-        </is>
+          <t>['100110' '100000']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>100110</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.04257999496094732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.01587301587301593</v>
+        <v>0.01587301587301582</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>011111</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0002519526329050156</v>
+        <v>0.0002519526329050121</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100111</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['100001' '011111']</t>
-        </is>
+          <t>['100110' '100000']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01587301587301582</v>
+      </c>
+      <c r="J11" t="n">
+        <v>32</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0002519526329050121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['000010' '000011']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['000010' '000011']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="B4" t="n">
+        <v>59</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111011' '000101']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.8412698412698413</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7077349458301839</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111011' '000101']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="J5" t="n">
+        <v>61</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="B6" t="n">
+        <v>58</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111010' '000111']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111010' '000111']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>63</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.5873015873015873</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>001101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.344923154446964</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>001101</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['001101' '001110']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.5873015873015873</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>001101</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.344923154446964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.5555555555555556</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.308641975308642</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['001101' '001110']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.5555555555555556</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.308641975308642</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.5238095238095238</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2743764172335601</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['001111' '001111']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.5238095238095238</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2743764172335601</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.5238095238095238</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2743764172335601</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['001111' '001111']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.5238095238095238</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2743764172335601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111101' '000011']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.8412698412698413</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7077349458301839</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111101' '000011']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J7" t="n">
+        <v>59</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.762156714537667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000011' '000011']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000011' '000011']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="B10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111011' '000101']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.8412698412698413</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7077349458301839</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111011' '000101']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="B8" t="n">
+        <v>61</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['111101' '111101']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="J8" t="n">
+        <v>61</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111101' '111101']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="J9" t="n">
+        <v>61</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000011' '000011']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000011' '000011']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6049382716049383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111111' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000010' '000010']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423532</v>
       </c>
     </row>
   </sheetData>

--- a/files/ac1_hist_ruleta.xlsx
+++ b/files/ac1_hist_ruleta.xlsx
@@ -13,11 +13,7 @@
     <sheet name="gen_3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="gen_4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="gen_5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="gen_6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="gen_7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="gen_8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="gen_9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Función objetivo" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Función objetivo" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,282 +493,282 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.9047619047619048</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8185941043083901</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['000011' '111010']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.873015873015873</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J2" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.762156714537667</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['000011' '111010']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.7777777777777778</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6049382716049383</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>110011</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['000111' '001101']</t>
+          <t>['000011' '110100']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.5238095238095238</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>110011</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.2743764172335601</v>
+        <v>0.3832199546485261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5873015873015873</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>111010</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.344923154446964</v>
+        <v>0.7077349458301837</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['000111' '001101']</t>
+          <t>['000011' '110100']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.8412698412698413</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.7077349458301839</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.5238095238095238</v>
+        <v>0.6507936507936507</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>110100</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2743764172335601</v>
+        <v>0.4235323759133282</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>101111</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['001111' '101110']</t>
+          <t>['111101' '111101']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.4920634920634921</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J6" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>101111</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.2421264802217183</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4603174603174602</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>101110</t>
+          <t>001110</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2118921642731166</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['001111' '101110']</t>
+          <t>['111101' '111101']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-0.5555555555555556</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.308641975308642</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3015873015873016</v>
+        <v>-0.3650793650793651</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>010110</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.09095490047871002</v>
+        <v>0.1332829428067523</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>010110</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['010110' '010111']</t>
+          <t>['110100' '000000']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.3015873015873016</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J8" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>010110</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.09095490047871002</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="9">
@@ -792,779 +788,107 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>010111</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['010110' '010111']</t>
+          <t>['110100' '000000']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.2698412698412699</v>
+        <v>0.5238095238095237</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>010111</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.07281431090954903</v>
+        <v>0.27437641723356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2063492063492063</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>100110</t>
+          <t>011011</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.04257999496094732</v>
+        <v>0.02040816326530613</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100110</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['100110' '100000']</t>
+          <t>['000000' '110100']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.5238095238095237</v>
       </c>
       <c r="J10" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>100110</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.04257999496094732</v>
+        <v>0.27437641723356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01587301587301582</v>
+        <v>-0.01587301587301593</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>011111</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0002519526329050121</v>
+        <v>0.0002519526329050156</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['100110' '100000']</t>
+          <t>['000000' '110100']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.01587301587301582</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J11" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.0002519526329050121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>63</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111111</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.6049382716049383</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J3" t="n">
-        <v>58</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>63</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111111</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
   </sheetData>
@@ -1640,402 +964,402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['000010' '000011']</t>
+          <t>['000100' '000100']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['000010' '000011']</t>
+          <t>['000100' '000100']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.9047619047619048</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['111011' '000101']</t>
+          <t>['000100' '111101']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.9365079365079363</v>
+      </c>
+      <c r="B5" t="n">
+        <v>61</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111101</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423528</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000100' '111101']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>-0.8412698412698413</v>
       </c>
-      <c r="B5" t="n">
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>000101</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="L5" t="n">
         <v>0.7077349458301839</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>111101</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['111011' '000101']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9365079365079363</v>
-      </c>
-      <c r="J5" t="n">
-        <v>61</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>111101</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['111010' '000111']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.7777777777777778</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6049382716049383</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['111010' '000111']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J7" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.5873015873015873</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.344923154446964</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['001101' '001110']</t>
+          <t>['111011' '000011']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.5873015873015873</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.344923154446964</v>
+        <v>0.8185941043083901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.308641975308642</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['001101' '001110']</t>
+          <t>['111011' '000011']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.5555555555555556</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.308641975308642</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.5238095238095238</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2743764172335601</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['001111' '001111']</t>
+          <t>['111101' '000100']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.5238095238095238</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.2743764172335601</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5238095238095238</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2743764172335601</v>
+        <v>0.7077349458301839</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['001111' '001111']</t>
+          <t>['111101' '000100']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.5238095238095238</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>001111</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.2743764172335601</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
   </sheetData>
@@ -2111,14 +1435,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2126,187 +1450,187 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['000011' '000000']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.6049382716049383</v>
+        <v>0.8185941043083901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['000011' '000000']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8412698412698412</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.7077349458301837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000011' '000011']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8185941043083901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000011' '000011']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8185941043083901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9365079365079363</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['111101' '000011']</t>
+          <t>['000011' '111101']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.8412698412698413</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.7077349458301839</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="7">
@@ -2326,107 +1650,107 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['111101' '000011']</t>
+          <t>['000011' '111101']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.873015873015873</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J7" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.762156714537667</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['000011' '000011']</t>
+          <t>['111101' '111100']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['000011' '000011']</t>
+          <t>['111101' '111100']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="10">
@@ -2446,67 +1770,67 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111011' '000101']</t>
+          <t>['000100' '111011']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.8412698412698413</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7077349458301839</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111011' '000101']</t>
+          <t>['000100' '111011']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.9365079365079363</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="J11" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.8185941043083901</v>
       </c>
     </row>
   </sheetData>
@@ -2582,14 +1906,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2597,307 +1921,307 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.6049382716049383</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '111101']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '111101']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9365079365079363</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B8" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['111101' '111101']</t>
+          <t>['000000' '000011']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.9365079365079363</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8770471151423528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9365079365079363</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['111101' '111101']</t>
+          <t>['000000' '000011']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.9365079365079363</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="J9" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.8185941043083901</v>
       </c>
     </row>
     <row r="10">
@@ -2917,27 +2241,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['000011' '000011']</t>
+          <t>['000011' '111101']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="11">
@@ -2957,27 +2281,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['000011' '000011']</t>
+          <t>['000011' '111101']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.9047619047619048</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
   </sheetData>
@@ -3053,14 +2377,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3068,387 +2392,387 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.6049382716049383</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000011']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
   </sheetData>
@@ -3524,14 +2848,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3539,387 +2863,387 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
+        <v>-1</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.6049382716049383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111111' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8412698412698412</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.7077349458301837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '111101']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['111101' '111101']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '111101']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['000010' '000010']</t>
+          <t>['000000' '111101']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3962,1377 +3286,165 @@
           <t>aptitud</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.6049382716049383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J3" t="n">
-        <v>58</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7077349458301837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>63</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111111</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.6049382716049383</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J3" t="n">
-        <v>58</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>63</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111111</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.7777777777777778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>000111</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.6049382716049383</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111111' '000010']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J3" t="n">
-        <v>58</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['000010' '000010']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/files/ac1_hist_ruleta.xlsx
+++ b/files/ac1_hist_ruleta.xlsx
@@ -9,7 +9,15 @@
   <sheets>
     <sheet name="gen_0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="gen_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Función objetivo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gen_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gen_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="gen_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="gen_5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="gen_6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="gen_7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="gen_8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="gen_9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Función objetivo" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,374 +497,374 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>010101</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['001101' '010010']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>-0.3333333333333334</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>010101</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6190476190476191</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001100</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3832199546485261</v>
+        <v>0.655328798185941</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>001010</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['001101' '010010']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>-0.6825396825396826</v>
       </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>001010</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.4658604182413706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5873015873015873</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.344923154446964</v>
+        <v>0.4658604182413704</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>010101</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['001101' '010000']</t>
+          <t>['011100' '010001']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.3650793650793651</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>010101</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1332829428067523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.5873015873015873</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>001110</t>
+          <t>001101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.308641975308642</v>
+        <v>0.344923154446964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['001101' '010000']</t>
+          <t>['011100' '010001']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.746031746031746</v>
+        <v>-0.2063492063492064</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.04257999496094736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4920634920634921</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>010000</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2421264802217183</v>
+        <v>0.3449231544469639</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110101' '110010']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="J6" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.4658604182413704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2698412698412699</v>
+        <v>-0.4603174603174603</v>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>010111</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.07281431090954903</v>
+        <v>0.2118921642731167</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110101' '110010']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="J7" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.3449231544469639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2063492063492064</v>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.04257999496094736</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['001100' '011001']</t>
+          <t>['101011' '000110']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.1111111111111112</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="J8" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.01234567901234569</v>
+        <v>0.8185941043083901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>100110</t>
+          <t>101011</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.04257999496094732</v>
+        <v>0.1332829428067523</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>101110</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['001100' '011001']</t>
+          <t>['101011' '000110']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.7142857142857143</v>
+        <v>0.4603174603174602</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>101110</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.2118921642731166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1111111111111112</v>
+        <v>-0.3015873015873016</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.01234567901234569</v>
+        <v>0.09095490047871002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>011110</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['001110' '011001']</t>
+          <t>['111100' '010110']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.04761904761904767</v>
+        <v>-0.3650793650793651</v>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>011110</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.00226757369614513</v>
+        <v>0.1332829428067523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1111111111111112</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100011</t>
+          <t>011100</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -864,27 +872,699 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['001110' '011001']</t>
+          <t>['111100' '010110']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.7142857142857143</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J7" t="n">
+        <v>62</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J9" t="n">
+        <v>62</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B11" t="n">
+        <v>62</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B11" t="n">
+        <v>62</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9375157470395563</v>
       </c>
     </row>
   </sheetData>
@@ -960,402 +1640,402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110101' '000110']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.8185941043083901</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110101' '000110']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.510204081632653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>001010</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110010' '001101']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>-0.6825396825396826</v>
       </c>
       <c r="J4" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>001010</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.4658604182413706</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.655328798185941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110010' '001101']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="J5" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.4658604182413704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>-0.6825396825396826</v>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>001010</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.4658604182413706</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111010</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110010' '111110']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="J6" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111010</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.7077349458301837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.746031746031746</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.4658604182413704</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['110010' '111110']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J7" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.510204081632653</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.7142857142857143</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.4658604182413704</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['001101' '001001']</t>
+          <t>['001010' '110101']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.5873015873015873</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.344923154446964</v>
+        <v>0.3449231544469639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7142857142857143</v>
+        <v>-0.5873015873015873</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>001101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.344923154446964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>001101</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['001101' '001001']</t>
+          <t>['001010' '110101']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.7142857142857143</v>
+        <v>-0.5873015873015873</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>001101</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.344923154446964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6190476190476191</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>001100</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3832199546485261</v>
+        <v>0.3449231544469639</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['111100' '000011']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J10" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5873015873015873</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.344923154446964</v>
+        <v>0.3449231544469639</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111111' '111111']</t>
+          <t>['111100' '000011']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J11" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +2049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,165 +2078,3261 @@
           <t>aptitud</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['000101' '000110']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8412698412698413</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000101</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7077349458301839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['000101' '000110']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.655328798185941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8185941043083899</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['110110' '000100']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.655328798185941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>110100</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['110110' '000100']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6507936507936507</v>
+      </c>
+      <c r="J5" t="n">
+        <v>52</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>110100</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4235323759133282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111110' '111011']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>-0.8412698412698413</v>
       </c>
       <c r="B7" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.7077349458301839</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111110' '111011']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J7" t="n">
+        <v>59</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>111010</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.7077349458301837</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['110110' '111100']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.655328798185941</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>110100</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['110110' '111100']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6507936507936507</v>
+      </c>
+      <c r="J9" t="n">
+        <v>52</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>110100</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4235323759133282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.510204081632653</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['000011' '111010']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J10" t="n">
+        <v>59</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="B11" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.510204081632653</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['000011' '111010']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111110' '000010']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.655328798185941</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111110' '000010']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111110' '000011']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.655328798185941</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111110' '000011']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.762156714537667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111011' '000100']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111011' '000100']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.873015873015873</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000100</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['111100' '111011']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="J8" t="n">
+        <v>60</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="B9" t="n">
+        <v>59</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111100' '111011']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J9" t="n">
+        <v>59</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.762156714537667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="B10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111011' '111110']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J10" t="n">
+        <v>59</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.762156714537667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="B11" t="n">
+        <v>59</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.762156714537667</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111011' '111110']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111100' '111110']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111100' '111110']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111110' '111100']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111110' '111100']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000011' '111110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J6" t="n">
+        <v>59</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.762156714537667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000011' '111110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.655328798185941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000011' '000010']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000011' '000010']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="B10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111100' '111110']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="J10" t="n">
+        <v>60</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111100' '111110']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111110' '000011']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.655328798185941</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111110' '000011']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.873015873015873</v>
+      </c>
+      <c r="J3" t="n">
+        <v>59</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.762156714537667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000010' '111110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J6" t="n">
+        <v>58</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000010' '111110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.655328798185941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['000010' '111110']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8412698412698412</v>
+      </c>
+      <c r="J8" t="n">
+        <v>58</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7077349458301837</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['000010' '111110']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.8095238095238095</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.655328798185941</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.9365079365079365</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8770471151423532</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.9047619047619048</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8185941043083901</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J7" t="n">
+        <v>62</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J9" t="n">
+        <v>62</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B11" t="n">
+        <v>62</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J7" t="n">
+        <v>62</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J9" t="n">
+        <v>62</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B11" t="n">
+        <v>62</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J7" t="n">
+        <v>62</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J9" t="n">
+        <v>62</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="B11" t="n">
+        <v>62</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9375157470395563</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682539682539681</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9375157470395563</v>
       </c>
     </row>
   </sheetData>

--- a/files/ac1_hist_ruleta.xlsx
+++ b/files/ac1_hist_ruleta.xlsx
@@ -13,11 +13,7 @@
     <sheet name="gen_3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="gen_4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="gen_5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="gen_6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="gen_7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="gen_8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="gen_9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Función objetivo" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Función objetivo" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,107 +508,107 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>010101</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['001101' '010010']</t>
+          <t>['010110' '111011']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.3333333333333334</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>010101</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.8095238095238095</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.655328798185941</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>010011</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['001101' '010010']</t>
+          <t>['010110' '111011']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.6825396825396826</v>
+        <v>-0.3968253968253969</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>010011</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.4658604182413706</v>
+        <v>0.1574703955656337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6825396825396823</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.3832199546485261</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['011100' '010001']</t>
+          <t>['001111' '001100']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.3650793650793651</v>
+        <v>-0.5238095238095238</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.1332829428067523</v>
+        <v>0.2743764172335601</v>
       </c>
     </row>
     <row r="5">
@@ -632,939 +628,267 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['011100' '010001']</t>
+          <t>['001111' '001100']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.2063492063492064</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.04257999496094736</v>
+        <v>0.3832199546485261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5873015873015872</v>
+        <v>-0.5238095238095238</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.2743764172335601</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['110101' '110010']</t>
+          <t>['001101' '111100']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.6825396825396823</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J6" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4603174603174603</v>
+        <v>-0.4920634920634921</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>010000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2118921642731167</v>
+        <v>0.2421264802217183</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['110101' '110010']</t>
+          <t>['001101' '111100']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5873015873015872</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.3832199546485261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.4285714285714286</v>
+        <v>-0.4603174603174603</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.2118921642731167</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['101011' '000110']</t>
+          <t>['010001' '011001']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.9047619047619048</v>
+        <v>-0.2063492063492064</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.04257999496094736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3650793650793651</v>
+        <v>-0.3015873015873016</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>101011</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1332829428067523</v>
+        <v>0.09095490047871002</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>101110</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['101011' '000110']</t>
+          <t>['010001' '011001']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.4603174603174602</v>
+        <v>-0.4603174603174603</v>
       </c>
       <c r="J9" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>101110</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.2118921642731166</v>
+        <v>0.2118921642731167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>-0.2063492063492064</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04257999496094736</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['100110' '010000']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>-0.3015873015873016</v>
       </c>
-      <c r="B10" t="n">
+      <c r="J10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>010110</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="L10" t="n">
         <v>0.09095490047871002</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['111100' '010110']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.3650793650793651</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.1332829428067523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1111111111111112</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>100110</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.01234567901234569</v>
+        <v>0.04257999496094732</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111100' '010110']</t>
+          <t>['100110' '010000']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.9682539682539681</v>
+        <v>0.01587301587301582</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B2" t="n">
-        <v>62</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J2" t="n">
-        <v>62</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B3" t="n">
-        <v>62</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B4" t="n">
-        <v>62</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J4" t="n">
-        <v>62</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B5" t="n">
-        <v>62</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J5" t="n">
-        <v>62</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B6" t="n">
-        <v>62</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>62</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B7" t="n">
-        <v>62</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J7" t="n">
-        <v>62</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B8" t="n">
-        <v>62</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J8" t="n">
-        <v>62</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B9" t="n">
-        <v>62</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J9" t="n">
-        <v>62</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B10" t="n">
-        <v>62</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J10" t="n">
-        <v>62</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B11" t="n">
-        <v>62</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J11" t="n">
-        <v>62</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B2" t="n">
-        <v>62</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B3" t="n">
-        <v>62</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B4" t="n">
-        <v>62</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B5" t="n">
-        <v>62</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B6" t="n">
-        <v>62</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B7" t="n">
-        <v>62</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B8" t="n">
-        <v>62</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B9" t="n">
-        <v>62</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B10" t="n">
-        <v>62</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B11" t="n">
-        <v>62</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9375157470395563</v>
+        <v>0.0002519526329050121</v>
       </c>
     </row>
   </sheetData>
@@ -1655,67 +979,67 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['110101' '000110']</t>
+          <t>['001100' '001100']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.8412698412698413</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.7077349458301839</v>
+        <v>0.3832199546485261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['110101' '000110']</t>
+          <t>['001100' '001100']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.7142857142857142</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="J3" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.510204081632653</v>
+        <v>0.3832199546485261</v>
       </c>
     </row>
     <row r="4">
@@ -1735,187 +1059,187 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['110010' '001101']</t>
+          <t>['001111' '111100']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.6825396825396826</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.4658604182413706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.8095238095238095</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.655328798185941</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['110010' '001101']</t>
+          <t>['001111' '111100']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.6825396825396823</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="J5" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.3832199546485261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6825396825396826</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4658604182413706</v>
+        <v>0.3832199546485261</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>001110</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['110010' '111110']</t>
+          <t>['111110' '001111']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>001110</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.308641975308642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6825396825396823</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.3832199546485261</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['110010' '111110']</t>
+          <t>['111110' '001111']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.7142857142857142</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.510204081632653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6825396825396823</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.3832199546485261</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['001010' '110101']</t>
+          <t>['111011' '111101']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.5873015873015872</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="9">
@@ -1935,107 +1259,107 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['001010' '110101']</t>
+          <t>['111011' '111101']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.5873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>001101</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.344923154446964</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5873015873015872</v>
+        <v>-0.5238095238095238</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.2743764172335601</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>001101</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111100' '000011']</t>
+          <t>['001101' '001100']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.873015873015873</v>
+        <v>-0.5873015873015873</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>001101</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.762156714537667</v>
+        <v>0.344923154446964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5873015873015872</v>
+        <v>-0.5238095238095238</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.2743764172335601</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111100' '000011']</t>
+          <t>['001101' '001100']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.873015873015873</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="J11" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.762156714537667</v>
+        <v>0.3832199546485261</v>
       </c>
     </row>
   </sheetData>
@@ -2111,178 +1435,178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['000101' '000110']</t>
+          <t>['111100' '111011']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.8412698412698413</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.7077349458301839</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.9047619047619048</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8185941043083901</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['000101' '000110']</t>
+          <t>['111100' '111011']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.8095238095238095</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.655328798185941</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['110110' '000100']</t>
+          <t>['111111' '001100']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.8095238095238095</v>
+        <v>-0.5238095238095238</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.655328798185941</v>
+        <v>0.2743764172335601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['110110' '000100']</t>
+          <t>['111111' '001100']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J5" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2291,7 +1615,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['111110' '111011']</t>
+          <t>['111110' '111101']</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -2311,202 +1635,202 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8412698412698413</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7077349458301839</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['111110' '111011']</t>
+          <t>['111110' '111101']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['110110' '111100']</t>
+          <t>['111011' '111101']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.9682539682539681</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J8" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.9375157470395563</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.8095238095238095</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111011</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.655328798185941</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['110110' '111100']</t>
+          <t>['111011' '111101']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J9" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7142857142857142</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.510204081632653</v>
+        <v>0.3832199546485261</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['000011' '111010']</t>
+          <t>['111111' '001100']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.873015873015873</v>
+        <v>-0.5238095238095238</v>
       </c>
       <c r="J10" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>001111</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.762156714537667</v>
+        <v>0.2743764172335601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7142857142857142</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.510204081632653</v>
+        <v>0.3832199546485261</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['000011' '111010']</t>
+          <t>['111111' '001100']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
   </sheetData>
@@ -2582,82 +1906,82 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111110' '000010']</t>
+          <t>['111111' '111101']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.655328798185941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111110' '000010']</t>
+          <t>['111111' '111101']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="4">
@@ -2677,163 +2001,163 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['111110' '000011']</t>
+          <t>['111101' '111100']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.8095238095238095</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.655328798185941</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['111110' '000011']</t>
+          <t>['111101' '111100']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['111011' '000100']</t>
+          <t>['111101' '111101']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['111011' '000100']</t>
+          <t>['111101' '111101']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2842,7 +2166,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['111100' '111011']</t>
+          <t>['111100' '111111']</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -2862,98 +2186,98 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['111100' '111011']</t>
+          <t>['111100' '111111']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.873015873015873</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.762156714537667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B10" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111011' '111110']</t>
+          <t>['111110' '111110']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="J10" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.762156714537667</v>
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2962,7 +2286,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111011' '111110']</t>
+          <t>['111110' '111110']</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -3053,67 +2377,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0.9682539682539681</v>
       </c>
-      <c r="B2" t="n">
+      <c r="J2" t="n">
         <v>62</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>111110</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="L2" t="n">
         <v>0.9375157470395563</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>111100</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111100' '111110']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9047619047619047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>60</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>111100</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>111110</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111100' '111110']</t>
+          <t>['111110' '111110']</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -3133,322 +2457,322 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['111110' '111100']</t>
+          <t>['111111' '111101']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['111110' '111100']</t>
+          <t>['111111' '111101']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['000011' '111110']</t>
+          <t>['111110' '111111']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="J6" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.762156714537667</v>
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['000011' '111110']</t>
+          <t>['111110' '111111']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.655328798185941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['000011' '000010']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.9047619047619048</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8185941043083901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['000011' '000010']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.9365079365079365</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111100' '111110']</t>
+          <t>['111110' '111101']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111100</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8185941043083899</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111100' '111110']</t>
+          <t>['111110' '111101']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.9682539682539681</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.9375157470395563</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
   </sheetData>
@@ -3524,402 +2848,402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['111110' '000011']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.655328798185941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['111110' '000011']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.873015873015873</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.762156714537667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['111110' '111110']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['111110' '111110']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>63</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0.9682539682539681</v>
       </c>
-      <c r="B6" t="n">
+      <c r="J6" t="n">
         <v>62</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>111110</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="L6" t="n">
         <v>0.9375157470395563</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['000010' '111110']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J6" t="n">
-        <v>58</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.7077349458301837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['111110' '111110']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0.9682539682539681</v>
       </c>
-      <c r="B7" t="n">
+      <c r="J7" t="n">
         <v>62</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>111110</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="L7" t="n">
         <v>0.9375157470395563</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>000110</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['000010' '111110']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.8095238095238095</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>000110</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.655328798185941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['000010' '111110']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.8412698412698412</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.7077349458301837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9365079365079365</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['000010' '111110']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.655328798185941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111110' '111110']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9047619047619048</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8185941043083901</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111110' '111110']</t>
+          <t>['111111' '111111']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3962,1377 +3286,165 @@
           <t>aptitud</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J2" t="n">
-        <v>62</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J4" t="n">
-        <v>62</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J5" t="n">
-        <v>62</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>62</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J7" t="n">
-        <v>62</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J8" t="n">
-        <v>62</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J9" t="n">
-        <v>62</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J10" t="n">
-        <v>62</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9682539682539681</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J11" t="n">
-        <v>62</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B2" t="n">
-        <v>62</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J2" t="n">
-        <v>62</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B3" t="n">
-        <v>62</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B4" t="n">
-        <v>62</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J4" t="n">
-        <v>62</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B5" t="n">
-        <v>62</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J5" t="n">
-        <v>62</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B6" t="n">
-        <v>62</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>62</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B7" t="n">
-        <v>62</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J7" t="n">
-        <v>62</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B8" t="n">
-        <v>62</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J8" t="n">
-        <v>62</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B9" t="n">
-        <v>62</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J9" t="n">
-        <v>62</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B10" t="n">
-        <v>62</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J10" t="n">
-        <v>62</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B11" t="n">
-        <v>62</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J11" t="n">
-        <v>62</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B2" t="n">
-        <v>62</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J2" t="n">
-        <v>62</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B3" t="n">
-        <v>62</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B4" t="n">
-        <v>62</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J4" t="n">
-        <v>62</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B5" t="n">
-        <v>62</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J5" t="n">
-        <v>62</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B6" t="n">
-        <v>62</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>62</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B7" t="n">
-        <v>62</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J7" t="n">
-        <v>62</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B8" t="n">
-        <v>62</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J8" t="n">
-        <v>62</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B9" t="n">
-        <v>62</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J9" t="n">
-        <v>62</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B10" t="n">
-        <v>62</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J10" t="n">
-        <v>62</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="B11" t="n">
-        <v>62</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9375157470395563</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['111110' '111110']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9682539682539681</v>
-      </c>
-      <c r="J11" t="n">
-        <v>62</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>111110</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
